--- a/BackTest/2020-01-26 BackTest ETH.xlsx
+++ b/BackTest/2020-01-26 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4048,7 +4048,7 @@
         <v>1062.920810144308</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1090.060510144308</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1110.350510144308</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1109.819410144308</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1109.819410144308</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1145.828810144308</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>924.4200101443076</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>923.3169101443076</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>750.5375101443076</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>755.5375101443076</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>755.5000101443076</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>751.8279101443076</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>751.8279101443076</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>725.4665101443076</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>725.6504101443076</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>725.6504101443076</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>724.4524101443076</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>703.6421101443076</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>701.2864101443076</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>713.0600101443076</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>710.3312101443076</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>753.7582101443079</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>749.6921259504196</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>729.3316259504196</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>756.7152259504196</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>722.8636259504196</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>722.8636259504196</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>956.9063264803615</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>1167.829026480362</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1159.981226480362</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1151.366126480362</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1147.360926480362</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1102.016426480362</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1103.531126480362</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1102.155626480361</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1120.136226480362</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1121.067726480361</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1119.856226480362</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1119.856226480362</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1120.035126480362</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1120.035126480362</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1110.343126480362</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1110.343126480362</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1110.819926480362</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1110.819926480362</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1071.589626480361</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1044.116226480361</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1044.401826480361</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1044.259026480361</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1044.259026480361</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1044.259026480361</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -12034,11 +12034,17 @@
         <v>-133.1575287306066</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>184800</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12073,17 @@
         <v>-133.1575287306066</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>184700</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,7 +12112,7 @@
         <v>-146.9075287306066</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>184700</v>
@@ -12108,7 +12120,7 @@
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L355" t="n">
@@ -12139,7 +12151,7 @@
         <v>-146.9021204017802</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>184300</v>
@@ -12178,7 +12190,7 @@
         <v>-150.955118237278</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>184900</v>
@@ -12217,7 +12229,7 @@
         <v>-103.3280349490141</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>184500</v>
@@ -12256,7 +12268,7 @@
         <v>-107.2808723815923</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>185400</v>
@@ -12295,7 +12307,7 @@
         <v>-79.55607238159232</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>184900</v>
@@ -12334,7 +12346,7 @@
         <v>-79.85607238159231</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>185000</v>
@@ -12373,7 +12385,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>184900</v>
@@ -12412,7 +12424,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>185000</v>
@@ -12451,7 +12463,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>185000</v>
@@ -12490,7 +12502,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>185000</v>
@@ -12529,7 +12541,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>185300</v>
@@ -12568,7 +12580,7 @@
         <v>-76.84200584084756</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>185300</v>
@@ -12607,7 +12619,7 @@
         <v>-77.84200584084756</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>185400</v>
@@ -12646,7 +12658,7 @@
         <v>-108.3332058408476</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>185000</v>
@@ -12685,7 +12697,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>184800</v>
@@ -12724,7 +12736,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>185500</v>
@@ -12763,7 +12775,7 @@
         <v>-112.0236058408476</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>185500</v>
@@ -12802,7 +12814,7 @@
         <v>-123.9736058408476</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>185400</v>
@@ -12841,7 +12853,7 @@
         <v>-276.1384058408476</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>185300</v>
@@ -12880,7 +12892,7 @@
         <v>-275.1384058408476</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>185100</v>
@@ -12919,7 +12931,7 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>185300</v>
@@ -12958,7 +12970,7 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>185100</v>
@@ -12997,7 +13009,7 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>185100</v>
@@ -13036,7 +13048,7 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>185400</v>
@@ -13075,7 +13087,7 @@
         <v>-217.3582058408475</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>185400</v>
@@ -13114,7 +13126,7 @@
         <v>-274.7943058408475</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>185500</v>
@@ -13153,7 +13165,7 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>185400</v>
@@ -13192,9 +13204,11 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>185300</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13229,7 +13243,7 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>185300</v>
@@ -13268,9 +13282,11 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>185100</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13305,9 +13321,11 @@
         <v>-329.6029058408475</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>185100</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13342,7 +13360,7 @@
         <v>-335.6994058408475</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>185000</v>
@@ -13381,7 +13399,7 @@
         <v>-321.5990058408476</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>184900</v>
@@ -13420,7 +13438,7 @@
         <v>-251.4684058408475</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>185300</v>
@@ -13459,7 +13477,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>185600</v>
@@ -13498,7 +13516,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>185500</v>
@@ -13537,7 +13555,7 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>185500</v>
@@ -13576,9 +13594,11 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>185800</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13613,9 +13633,11 @@
         <v>-263.9918058408476</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>185800</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13650,9 +13672,11 @@
         <v>-262.5089058408476</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>185700</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13687,9 +13711,11 @@
         <v>-192.8582963835666</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>185800</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13724,9 +13750,11 @@
         <v>-192.9901963835666</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>186100</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13761,9 +13789,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>185800</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13798,9 +13828,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>186000</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13835,9 +13867,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>186000</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13872,9 +13906,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>186000</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13909,9 +13945,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>186100</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13946,9 +13984,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>186100</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13983,9 +14023,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>186100</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14020,7 +14062,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>186000</v>
@@ -14059,7 +14101,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>186000</v>
@@ -14098,11 +14140,9 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14137,7 +14177,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>186000</v>
@@ -14176,7 +14216,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>186000</v>
@@ -14215,9 +14255,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>186000</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14252,7 +14294,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>186000</v>
@@ -14291,7 +14333,7 @@
         <v>-110.7276963835666</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>186000</v>
@@ -14330,7 +14372,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>186200</v>
@@ -14369,7 +14411,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>186100</v>
@@ -14408,7 +14450,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>186100</v>
@@ -14447,11 +14489,9 @@
         <v>-99.57909638356658</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14486,11 +14526,9 @@
         <v>-99.59779638356657</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14525,9 +14563,11 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>186100</v>
+      </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14562,9 +14602,11 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>186000</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14636,9 +14678,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>186000</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14673,9 +14717,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>186200</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14710,9 +14756,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>186200</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14821,9 +14869,11 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>186100</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14895,9 +14945,11 @@
         <v>-107.9068963835666</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>185900</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14932,9 +14984,11 @@
         <v>-113.2650963835666</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>185800</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14969,9 +15023,11 @@
         <v>-163.0417963835666</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>185700</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15006,7 +15062,7 @@
         <v>-162.2697963835666</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>185600</v>
@@ -15045,9 +15101,11 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>185800</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15082,7 +15140,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>185900</v>
@@ -15121,7 +15179,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>185900</v>
@@ -15160,7 +15218,7 @@
         <v>-170.3284963835666</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>185900</v>
@@ -15199,7 +15257,7 @@
         <v>-169.5723963835666</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>185500</v>
@@ -15238,7 +15296,7 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>185800</v>
@@ -15277,9 +15335,11 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>185400</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15314,9 +15374,11 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>185400</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15351,9 +15413,11 @@
         <v>-259.5649963835666</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>185400</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15388,9 +15452,11 @@
         <v>-259.5649963835666</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>185600</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15425,7 +15491,7 @@
         <v>-260.6453963835666</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>185600</v>
@@ -15464,7 +15530,7 @@
         <v>-264.3283963835666</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>185500</v>
@@ -15503,7 +15569,7 @@
         <v>-263.0121963835666</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>185300</v>
@@ -15542,7 +15608,7 @@
         <v>-263.0121963835666</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>185500</v>
@@ -15581,9 +15647,11 @@
         <v>-263.0121963835666</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>185500</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15618,9 +15686,11 @@
         <v>-262.9621963835666</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>185500</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15655,9 +15725,11 @@
         <v>-262.9621963835666</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>185800</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15692,9 +15764,11 @@
         <v>-262.9082963835666</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>185800</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15729,9 +15803,11 @@
         <v>-263.2479963835666</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>186000</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15766,9 +15842,11 @@
         <v>-259.6086963835666</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>185900</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15803,9 +15881,11 @@
         <v>-259.6086963835666</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>186300</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16136,7 +16216,7 @@
         <v>283.7369036164334</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>186200</v>
@@ -16175,7 +16255,7 @@
         <v>283.7369036164334</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>185900</v>
@@ -16214,11 +16294,9 @@
         <v>285.7399036164334</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16253,7 +16331,7 @@
         <v>243.0481036164334</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>186000</v>
@@ -16292,11 +16370,9 @@
         <v>262.2570036164334</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -17219,9 +17295,11 @@
         <v>101.8378036164334</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>186100</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17293,9 +17371,11 @@
         <v>101.8462036164334</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>185900</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -28704,6 +28784,6 @@
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ETH.xlsx
+++ b/BackTest/2020-01-26 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>59.93032994207262</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>21.85722994207261</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>63.9877299420726</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>76.9478299420726</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>78.13101014430785</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>73.33591014430785</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>73.72881014430784</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>111.2698101443078</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>924.4200101443076</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>923.3169101443076</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>750.5375101443076</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>755.5375101443076</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>755.5000101443076</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>751.8279101443076</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>751.8279101443076</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>725.4665101443076</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>725.6504101443076</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>725.6504101443076</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>724.4524101443076</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>703.6421101443076</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>701.2864101443076</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>713.0600101443076</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>729.3316259504196</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>756.7152259504196</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>722.8636259504196</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>722.8636259504196</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1121.067726480361</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1119.856226480362</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1119.856226480362</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1120.035126480362</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1120.035126480362</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1110.343126480362</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1110.343126480362</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1110.819926480362</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1110.819926480362</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -12034,17 +12034,11 @@
         <v>-133.1575287306066</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>184800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12073,17 +12067,11 @@
         <v>-133.1575287306066</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>184700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12112,17 +12100,11 @@
         <v>-146.9075287306066</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>184700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12151,17 +12133,11 @@
         <v>-146.9021204017802</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>184300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12190,17 +12166,11 @@
         <v>-150.955118237278</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>184900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12229,17 +12199,11 @@
         <v>-103.3280349490141</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>184500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12268,17 +12232,11 @@
         <v>-107.2808723815923</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12307,17 +12265,11 @@
         <v>-79.55607238159232</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>184900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12346,17 +12298,11 @@
         <v>-79.85607238159231</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12385,17 +12331,11 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>184900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12424,17 +12364,11 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12463,17 +12397,11 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12502,17 +12430,11 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12541,17 +12463,11 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12580,17 +12496,11 @@
         <v>-76.84200584084756</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12619,17 +12529,11 @@
         <v>-77.84200584084756</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12658,17 +12562,11 @@
         <v>-108.3332058408476</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12697,17 +12595,11 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>184800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12736,17 +12628,11 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12775,17 +12661,11 @@
         <v>-112.0236058408476</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12814,17 +12694,11 @@
         <v>-123.9736058408476</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12853,17 +12727,11 @@
         <v>-276.1384058408476</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12892,17 +12760,11 @@
         <v>-275.1384058408476</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>185100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12931,17 +12793,11 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12970,17 +12826,11 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>185100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13009,17 +12859,11 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>185100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13048,17 +12892,11 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13087,17 +12925,11 @@
         <v>-217.3582058408475</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13126,17 +12958,11 @@
         <v>-274.7943058408475</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13165,17 +12991,11 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13204,17 +13024,11 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13243,17 +13057,11 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13282,17 +13090,11 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>185100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13321,17 +13123,11 @@
         <v>-329.6029058408475</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>185100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13360,17 +13156,11 @@
         <v>-335.6994058408475</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13399,17 +13189,11 @@
         <v>-321.5990058408476</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>184900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13438,17 +13222,11 @@
         <v>-251.4684058408475</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>185300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13477,17 +13255,11 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>185600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13516,17 +13288,11 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13555,17 +13321,11 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13594,17 +13354,11 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13633,17 +13387,11 @@
         <v>-263.9918058408476</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13672,17 +13420,11 @@
         <v>-262.5089058408476</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>185700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13711,17 +13453,11 @@
         <v>-192.8582963835666</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13750,17 +13486,11 @@
         <v>-192.9901963835666</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13789,17 +13519,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13828,17 +13552,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13867,17 +13585,11 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13906,17 +13618,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13945,17 +13651,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13984,17 +13684,11 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14023,17 +13717,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14062,17 +13750,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14101,17 +13783,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14144,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14177,17 +13849,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14216,17 +13882,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14255,17 +13915,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14294,17 +13948,11 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14333,17 +13981,11 @@
         <v>-110.7276963835666</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14372,17 +14014,11 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14411,17 +14047,11 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14450,17 +14080,11 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14493,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14530,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14563,17 +14179,11 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14602,17 +14212,11 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14645,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14678,17 +14278,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14717,17 +14311,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14756,17 +14344,11 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14799,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14836,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14869,17 +14443,11 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14912,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14945,17 +14509,11 @@
         <v>-107.9068963835666</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14984,17 +14542,11 @@
         <v>-113.2650963835666</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15023,17 +14575,11 @@
         <v>-163.0417963835666</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>185700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15062,17 +14608,11 @@
         <v>-162.2697963835666</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>185600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15101,17 +14641,11 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15140,17 +14674,11 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15179,17 +14707,11 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15218,17 +14740,11 @@
         <v>-170.3284963835666</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15257,17 +14773,11 @@
         <v>-169.5723963835666</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>185500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15296,17 +14806,11 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15335,17 +14839,11 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>185400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15382,7 +14880,7 @@
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L439" t="n">
@@ -15881,11 +15379,9 @@
         <v>-259.6086963835666</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>186300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15957,18 +15453,16 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -15994,15 +15488,11 @@
         <v>297.9845036164334</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16035,11 +15525,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16068,15 +15554,11 @@
         <v>297.8295036164334</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16105,15 +15587,11 @@
         <v>292.7245036164334</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16146,11 +15624,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16183,11 +15657,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16216,17 +15686,11 @@
         <v>283.7369036164334</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16255,17 +15719,11 @@
         <v>283.7369036164334</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16298,11 +15756,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16331,17 +15785,11 @@
         <v>243.0481036164334</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16374,11 +15822,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16411,11 +15855,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16448,11 +15888,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16485,11 +15921,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +15954,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16559,11 +15987,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16596,11 +16020,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16633,11 +16053,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16670,11 +16086,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16707,11 +16119,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16744,11 +16152,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16781,11 +16185,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16818,11 +16218,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16855,11 +16251,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16892,11 +16284,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16929,11 +16317,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16966,11 +16350,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17003,11 +16383,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17040,11 +16416,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +16449,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17114,11 +16482,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +16515,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17188,11 +16548,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17225,11 +16581,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17262,11 +16614,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17295,17 +16643,11 @@
         <v>101.8378036164334</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>186100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17338,11 +16680,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17371,17 +16709,11 @@
         <v>101.8462036164334</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17414,11 +16746,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17451,11 +16779,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17488,11 +16812,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17525,11 +16845,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17562,11 +16878,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17599,11 +16911,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17636,11 +16944,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17673,11 +16977,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17010,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17747,11 +17043,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17784,11 +17076,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17821,11 +17109,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17858,11 +17142,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17895,11 +17175,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17932,11 +17208,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17969,11 +17241,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18006,11 +17274,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18043,11 +17307,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18080,11 +17340,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18117,11 +17373,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18154,11 +17406,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18191,11 +17439,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18228,11 +17472,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18265,11 +17505,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18302,11 +17538,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18339,11 +17571,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18376,11 +17604,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18413,11 +17637,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18450,11 +17670,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +17703,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18524,11 +17736,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18561,11 +17769,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18598,11 +17802,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18635,11 +17835,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18672,11 +17868,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18709,11 +17901,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18746,11 +17934,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18783,11 +17967,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18820,11 +18000,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18857,11 +18033,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18894,11 +18066,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +18099,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18968,11 +18132,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19005,11 +18165,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19042,11 +18198,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19079,11 +18231,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19116,11 +18264,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19153,11 +18297,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19190,11 +18330,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19227,11 +18363,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19264,11 +18396,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19301,11 +18429,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19338,11 +18462,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19375,11 +18495,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19412,11 +18528,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19449,11 +18561,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19486,11 +18594,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19523,11 +18627,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19560,11 +18660,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19597,11 +18693,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19634,11 +18726,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19671,11 +18759,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19708,11 +18792,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19745,11 +18825,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19782,11 +18858,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19819,11 +18891,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19856,11 +18924,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19893,11 +18957,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19930,11 +18990,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19967,11 +19023,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20004,11 +19056,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20041,11 +19089,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20078,11 +19122,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20115,11 +19155,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +19188,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20189,11 +19221,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20226,11 +19254,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20263,11 +19287,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20300,11 +19320,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20337,11 +19353,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20374,11 +19386,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20411,11 +19419,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20448,11 +19452,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20485,11 +19485,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20522,11 +19518,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20559,11 +19551,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20596,11 +19584,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20633,11 +19617,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20670,11 +19650,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20707,11 +19683,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20744,11 +19716,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20781,11 +19749,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20818,11 +19782,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20855,11 +19815,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20892,11 +19848,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20929,11 +19881,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20966,11 +19914,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21003,11 +19947,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21040,11 +19980,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21077,11 +20013,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21114,11 +20046,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21151,11 +20079,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21188,11 +20112,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21225,11 +20145,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21262,11 +20178,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21299,11 +20211,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21336,11 +20244,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +20277,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21410,11 +20310,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21443,15 +20339,11 @@
         <v>227.3644944822952</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21480,15 +20372,11 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21517,15 +20405,11 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21554,15 +20438,11 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21591,15 +20471,11 @@
         <v>286.029492138129</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21628,15 +20504,11 @@
         <v>286.029492138129</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21665,15 +20537,11 @@
         <v>285.988692138129</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21702,15 +20570,11 @@
         <v>285.977492138129</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21739,15 +20603,11 @@
         <v>285.977492138129</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21776,15 +20636,11 @@
         <v>354.6021921381291</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21813,15 +20669,11 @@
         <v>343.620792138129</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21850,15 +20702,11 @@
         <v>346.060792138129</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21887,15 +20735,11 @@
         <v>338.025092138129</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21924,15 +20768,11 @@
         <v>326.114292138129</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21961,15 +20801,11 @@
         <v>339.114292138129</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21998,15 +20834,11 @@
         <v>339.114292138129</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22035,15 +20867,11 @@
         <v>339.114292138129</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22072,15 +20900,11 @@
         <v>339.114292138129</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22109,15 +20933,11 @@
         <v>339.114292138129</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22146,15 +20966,11 @@
         <v>336.941292138129</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22183,15 +20999,11 @@
         <v>227.991992138129</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22220,15 +21032,11 @@
         <v>227.991992138129</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22257,15 +21065,11 @@
         <v>243.023492138129</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22294,15 +21098,11 @@
         <v>252.393692138129</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22331,15 +21131,11 @@
         <v>252.1525921381291</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22368,15 +21164,11 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22405,15 +21197,11 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22442,15 +21230,11 @@
         <v>261.365192138129</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22479,15 +21263,11 @@
         <v>261.365192138129</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22516,15 +21296,11 @@
         <v>260.134992138129</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22553,15 +21329,11 @@
         <v>244.998292138129</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22590,15 +21362,11 @@
         <v>244.998292138129</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22627,15 +21395,11 @@
         <v>243.998292138129</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22664,15 +21428,11 @@
         <v>245.201892138129</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22701,15 +21461,11 @@
         <v>245.201892138129</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22742,11 +21498,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22779,11 +21531,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22816,11 +21564,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22853,11 +21597,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22890,11 +21630,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22927,11 +21663,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22964,11 +21696,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23001,11 +21729,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23038,11 +21762,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23075,11 +21795,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23112,11 +21828,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23149,11 +21861,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23186,11 +21894,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23223,11 +21927,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23260,11 +21960,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23297,11 +21993,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23334,11 +22026,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23371,11 +22059,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23408,11 +22092,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23445,11 +22125,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23482,11 +22158,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23519,11 +22191,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23556,11 +22224,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23593,11 +22257,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23630,11 +22290,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23667,11 +22323,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23704,11 +22356,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23741,11 +22389,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23778,11 +22422,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +22455,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23852,11 +22488,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23889,11 +22521,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23926,11 +22554,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23963,11 +22587,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24000,11 +22620,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24037,11 +22653,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24074,11 +22686,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24111,11 +22719,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24148,11 +22752,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24185,11 +22785,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24222,11 +22818,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24259,11 +22851,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24296,11 +22884,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24333,11 +22917,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24370,11 +22950,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24407,11 +22983,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24444,11 +23016,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24481,11 +23049,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24518,11 +23082,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24555,11 +23115,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24592,11 +23148,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24629,11 +23181,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24666,11 +23214,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24703,11 +23247,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24740,11 +23280,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24777,11 +23313,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24814,11 +23346,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24851,11 +23379,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24888,11 +23412,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24925,11 +23445,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24962,11 +23478,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24999,11 +23511,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +23544,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25073,11 +23577,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25110,11 +23610,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25147,11 +23643,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25184,11 +23676,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25221,11 +23709,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25258,11 +23742,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25295,11 +23775,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25332,11 +23808,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25369,11 +23841,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25406,11 +23874,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25443,11 +23907,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25480,11 +23940,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25517,11 +23973,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25554,11 +24006,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25591,11 +24039,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25628,11 +24072,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25665,11 +24105,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25702,11 +24138,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25739,11 +24171,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25776,11 +24204,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25813,11 +24237,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25850,11 +24270,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25887,11 +24303,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25924,11 +24336,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25961,11 +24369,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25998,11 +24402,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26035,11 +24435,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26072,11 +24468,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26109,11 +24501,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26146,11 +24534,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26183,11 +24567,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26220,11 +24600,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +24633,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26294,11 +24666,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26331,11 +24699,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26368,11 +24732,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26405,11 +24765,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26442,11 +24798,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26479,11 +24831,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26516,11 +24864,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26553,11 +24897,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26590,11 +24930,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26627,11 +24963,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26664,11 +24996,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26701,11 +25029,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26738,11 +25062,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26775,11 +25095,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26812,11 +25128,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26849,11 +25161,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26886,11 +25194,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26923,11 +25227,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26960,11 +25260,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26997,11 +25293,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27034,11 +25326,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27071,11 +25359,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27108,11 +25392,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27145,11 +25425,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27182,11 +25458,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27219,11 +25491,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27256,11 +25524,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27293,11 +25557,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27330,11 +25590,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27367,11 +25623,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27404,11 +25656,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27441,11 +25689,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +25722,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27515,11 +25755,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27552,11 +25788,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27589,11 +25821,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27626,11 +25854,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27663,11 +25887,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27700,11 +25920,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27737,11 +25953,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27774,11 +25986,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27811,11 +26019,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27848,11 +26052,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27885,11 +26085,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27922,11 +26118,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27959,11 +26151,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27996,11 +26184,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28033,11 +26217,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28070,11 +26250,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28107,11 +26283,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28144,11 +26316,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28181,11 +26349,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28214,15 +26378,11 @@
         <v>323.1147243961936</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28251,15 +26411,11 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28288,15 +26444,11 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28325,15 +26477,11 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28362,15 +26510,11 @@
         <v>331.2856243961936</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28399,15 +26543,11 @@
         <v>300.4028243961936</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28436,15 +26576,11 @@
         <v>303.4028243961936</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28473,15 +26609,11 @@
         <v>303.2629243961936</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28510,15 +26642,11 @@
         <v>303.2029243961936</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28547,15 +26675,11 @@
         <v>303.0969243961936</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28584,15 +26708,11 @@
         <v>302.4588243961936</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28621,15 +26741,11 @@
         <v>351.5325243961936</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28658,15 +26774,11 @@
         <v>348.6005243961936</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28695,15 +26807,11 @@
         <v>366.2784243961936</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28732,15 +26840,11 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28769,21 +26873,17 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ETH.xlsx
+++ b/BackTest/2020-01-26 BackTest ETH.xlsx
@@ -781,7 +781,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>59.93032994207262</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>21.85722994207261</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>63.9877299420726</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>76.9478299420726</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>78.13101014430785</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>73.33591014430785</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>73.72881014430784</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>111.2698101443078</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1029.381310144308</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1082.324910144308</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1082.324910144308</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1090.060510144308</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1109.819410144308</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1145.828810144308</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>923.1990101443076</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>924.5200101443077</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>924.4200101443076</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>923.3169101443076</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>923.3704101443076</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>905.7703101443076</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1159.981226480362</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1151.366126480362</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1147.360926480362</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1102.016426480362</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -12133,10 +12133,14 @@
         <v>-146.9021204017802</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>184300</v>
+      </c>
+      <c r="J356" t="n">
+        <v>184300</v>
+      </c>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12166,11 +12170,19 @@
         <v>-150.955118237278</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>184900</v>
+      </c>
+      <c r="J357" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12211,19 @@
         <v>-103.3280349490141</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>184500</v>
+      </c>
+      <c r="J358" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12252,19 @@
         <v>-107.2808723815923</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J359" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12293,19 @@
         <v>-79.55607238159232</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>184900</v>
+      </c>
+      <c r="J360" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12334,19 @@
         <v>-79.85607238159231</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J361" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12375,19 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>184900</v>
+      </c>
+      <c r="J362" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12416,19 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J363" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12457,19 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J364" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12498,19 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J365" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12539,19 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J366" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12580,19 @@
         <v>-76.84200584084756</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J367" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12621,19 @@
         <v>-77.84200584084756</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J368" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12662,19 @@
         <v>-108.3332058408476</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J369" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12703,19 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>184800</v>
+      </c>
+      <c r="J370" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12744,19 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J371" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12785,19 @@
         <v>-112.0236058408476</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J372" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12826,19 @@
         <v>-123.9736058408476</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J373" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12867,19 @@
         <v>-276.1384058408476</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J374" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12908,19 @@
         <v>-275.1384058408476</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>185100</v>
+      </c>
+      <c r="J375" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +12952,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12988,19 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>185100</v>
+      </c>
+      <c r="J377" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13029,19 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>185100</v>
+      </c>
+      <c r="J378" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13070,19 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J379" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13111,19 @@
         <v>-217.3582058408475</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J380" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13152,19 @@
         <v>-274.7943058408475</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J381" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13193,19 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J382" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13234,19 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J383" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13275,19 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J384" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13316,19 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>185100</v>
+      </c>
+      <c r="J385" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13357,19 @@
         <v>-329.6029058408475</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>185100</v>
+      </c>
+      <c r="J386" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13398,19 @@
         <v>-335.6994058408475</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>185000</v>
+      </c>
+      <c r="J387" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13439,19 @@
         <v>-321.5990058408476</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>184900</v>
+      </c>
+      <c r="J388" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13480,19 @@
         <v>-251.4684058408475</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>185300</v>
+      </c>
+      <c r="J389" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13521,19 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>185600</v>
+      </c>
+      <c r="J390" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13562,19 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J391" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13603,19 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J392" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13644,19 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J393" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13685,19 @@
         <v>-263.9918058408476</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J394" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13726,19 @@
         <v>-262.5089058408476</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>185700</v>
+      </c>
+      <c r="J395" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13767,19 @@
         <v>-192.8582963835666</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J396" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13808,19 @@
         <v>-192.9901963835666</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J397" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13849,19 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J398" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13890,19 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J399" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13931,19 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J400" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13972,19 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J401" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14013,19 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J402" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14054,19 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J403" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14095,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J404" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14136,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J405" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14177,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J406" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14218,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J407" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14259,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J408" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14300,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J409" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14341,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J410" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14382,19 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J411" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14423,19 @@
         <v>-110.7276963835666</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J412" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14464,19 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J413" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14505,19 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J414" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14546,19 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J415" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14587,19 @@
         <v>-99.57909638356658</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J416" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14628,19 @@
         <v>-99.59779638356657</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J417" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14669,19 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J418" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14710,19 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J419" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14751,19 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J420" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14792,19 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J421" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14833,19 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J422" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14874,19 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J423" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14915,19 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J424" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14956,19 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J425" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14997,19 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J426" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +15038,19 @@
         <v>-99.03969638356658</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>186100</v>
+      </c>
+      <c r="J427" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +15079,19 @@
         <v>-107.9068963835666</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>185900</v>
+      </c>
+      <c r="J428" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +15120,19 @@
         <v>-113.2650963835666</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J429" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +15161,19 @@
         <v>-163.0417963835666</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>185700</v>
+      </c>
+      <c r="J430" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +15202,19 @@
         <v>-162.2697963835666</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>185600</v>
+      </c>
+      <c r="J431" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +15243,19 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J432" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +15284,19 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>185900</v>
+      </c>
+      <c r="J433" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +15325,19 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>185900</v>
+      </c>
+      <c r="J434" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +15366,19 @@
         <v>-170.3284963835666</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>185900</v>
+      </c>
+      <c r="J435" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +15407,19 @@
         <v>-169.5723963835666</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>185500</v>
+      </c>
+      <c r="J436" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +15448,19 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>185800</v>
+      </c>
+      <c r="J437" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15489,19 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>185400</v>
+      </c>
+      <c r="J438" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14877,10 +15535,12 @@
       <c r="I439" t="n">
         <v>185400</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>184300</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L439" t="n">
@@ -14916,7 +15576,9 @@
       <c r="I440" t="n">
         <v>185400</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>184300</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14955,7 +15617,9 @@
       <c r="I441" t="n">
         <v>185600</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>184300</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14994,7 +15658,9 @@
       <c r="I442" t="n">
         <v>185600</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>184300</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,7 +15699,9 @@
       <c r="I443" t="n">
         <v>185500</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>184300</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,7 +15740,9 @@
       <c r="I444" t="n">
         <v>185300</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>184300</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,7 +15781,9 @@
       <c r="I445" t="n">
         <v>185500</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>184300</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,7 +15822,9 @@
       <c r="I446" t="n">
         <v>185500</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>184300</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15189,7 +15863,9 @@
       <c r="I447" t="n">
         <v>185500</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>184300</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15228,7 +15904,9 @@
       <c r="I448" t="n">
         <v>185800</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>184300</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,7 +15945,9 @@
       <c r="I449" t="n">
         <v>185800</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>184300</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,7 +15986,9 @@
       <c r="I450" t="n">
         <v>186000</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>184300</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +16027,9 @@
       <c r="I451" t="n">
         <v>185900</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>184300</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15379,10 +16063,14 @@
         <v>-259.6086963835666</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>186300</v>
+      </c>
+      <c r="J452" t="n">
+        <v>184300</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15416,10 +16104,14 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>186300</v>
+      </c>
+      <c r="J453" t="n">
+        <v>184300</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15453,16 +16145,20 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>184300</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L454" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
       <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -15488,11 +16184,17 @@
         <v>297.9845036164334</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15524,8 +16226,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15554,11 +16262,17 @@
         <v>297.8295036164334</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15587,11 +16301,17 @@
         <v>292.7245036164334</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15623,8 +16343,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15656,8 +16382,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15689,8 +16421,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15722,8 +16460,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15755,8 +16499,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15788,8 +16538,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15821,8 +16577,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15854,8 +16616,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15887,8 +16655,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15920,8 +16694,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15953,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15986,8 +16772,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16019,8 +16811,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16052,8 +16850,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16085,8 +16889,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16118,8 +16928,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16151,8 +16967,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16184,8 +17006,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16217,8 +17045,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16250,8 +17084,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16283,8 +17123,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16316,8 +17162,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16349,8 +17201,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16382,8 +17240,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16415,8 +17279,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16448,8 +17318,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16481,8 +17357,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16514,8 +17396,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16547,8 +17435,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16580,8 +17474,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16613,8 +17513,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16643,11 +17549,17 @@
         <v>101.8378036164334</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16679,8 +17591,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16712,8 +17630,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16745,8 +17669,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16778,8 +17708,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16811,8 +17747,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16844,8 +17786,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16877,8 +17825,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16910,8 +17864,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16943,8 +17903,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16976,8 +17942,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17009,8 +17981,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17042,8 +18020,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17075,8 +18059,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17108,8 +18098,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17141,8 +18137,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17174,8 +18176,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17207,8 +18215,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17240,8 +18254,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17273,8 +18293,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17306,8 +18332,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17339,8 +18371,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17372,8 +18410,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17405,8 +18449,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17438,8 +18488,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17471,8 +18527,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17504,8 +18566,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17537,8 +18605,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17570,8 +18644,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17603,8 +18683,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17636,8 +18722,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17669,8 +18761,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17702,8 +18800,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17735,8 +18839,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17768,8 +18878,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17801,8 +18917,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17834,8 +18956,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17867,8 +18995,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17900,8 +19034,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17933,8 +19073,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17966,8 +19112,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17999,8 +19151,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18032,8 +19190,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18065,8 +19229,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18098,8 +19268,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18131,8 +19307,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18164,8 +19346,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18197,8 +19385,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18230,8 +19424,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18263,8 +19463,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18296,8 +19502,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18329,8 +19541,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18362,8 +19580,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18395,8 +19619,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18428,8 +19658,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18461,8 +19697,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18494,8 +19736,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18527,8 +19775,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18560,8 +19814,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18593,8 +19853,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18626,8 +19892,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18659,8 +19931,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18692,8 +19970,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18725,8 +20009,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18758,8 +20048,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18791,8 +20087,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18824,8 +20126,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18857,8 +20165,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18890,8 +20204,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18923,8 +20243,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18956,8 +20282,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18989,8 +20321,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19022,8 +20360,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19055,8 +20399,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19088,8 +20438,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19121,8 +20477,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19154,8 +20516,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19187,8 +20555,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19220,8 +20594,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19253,8 +20633,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19286,8 +20672,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19319,8 +20711,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19352,8 +20750,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19385,8 +20789,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19418,8 +20828,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19451,8 +20867,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19484,8 +20906,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19517,8 +20945,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19550,8 +20984,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19583,8 +21023,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19616,8 +21062,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19649,8 +21101,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19682,8 +21140,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19715,8 +21179,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19748,8 +21218,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19781,8 +21257,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19814,8 +21296,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19847,8 +21335,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19880,8 +21374,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19913,8 +21413,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19946,8 +21452,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19979,8 +21491,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20012,8 +21530,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20045,8 +21569,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20078,8 +21608,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20111,8 +21647,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20144,8 +21686,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20177,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20210,8 +21764,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20243,8 +21803,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20276,8 +21842,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20309,8 +21881,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20339,11 +21917,17 @@
         <v>227.3644944822952</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20372,11 +21956,17 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20405,11 +21995,17 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20438,11 +22034,17 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20471,11 +22073,17 @@
         <v>286.029492138129</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20504,11 +22112,17 @@
         <v>286.029492138129</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20537,11 +22151,17 @@
         <v>285.988692138129</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20570,11 +22190,17 @@
         <v>285.977492138129</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20603,11 +22229,17 @@
         <v>285.977492138129</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20636,11 +22268,17 @@
         <v>354.6021921381291</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20669,11 +22307,17 @@
         <v>343.620792138129</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20702,11 +22346,17 @@
         <v>346.060792138129</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20735,11 +22385,17 @@
         <v>338.025092138129</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20768,11 +22424,17 @@
         <v>326.114292138129</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20801,11 +22463,17 @@
         <v>339.114292138129</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20834,11 +22502,17 @@
         <v>339.114292138129</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20867,11 +22541,17 @@
         <v>339.114292138129</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20900,11 +22580,17 @@
         <v>339.114292138129</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20933,11 +22619,17 @@
         <v>339.114292138129</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20966,11 +22658,17 @@
         <v>336.941292138129</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20999,11 +22697,17 @@
         <v>227.991992138129</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21032,11 +22736,17 @@
         <v>227.991992138129</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21065,11 +22775,17 @@
         <v>243.023492138129</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21098,11 +22814,17 @@
         <v>252.393692138129</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21131,11 +22853,17 @@
         <v>252.1525921381291</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21164,11 +22892,17 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21197,11 +22931,17 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21230,11 +22970,17 @@
         <v>261.365192138129</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21263,11 +23009,17 @@
         <v>261.365192138129</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21296,11 +23048,17 @@
         <v>260.134992138129</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21329,11 +23087,17 @@
         <v>244.998292138129</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21362,11 +23126,17 @@
         <v>244.998292138129</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21395,11 +23165,17 @@
         <v>243.998292138129</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21428,11 +23204,17 @@
         <v>245.201892138129</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21461,11 +23243,17 @@
         <v>245.201892138129</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21497,8 +23285,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21530,8 +23324,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21563,8 +23363,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21596,8 +23402,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21629,8 +23441,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21662,8 +23480,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21695,8 +23519,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21728,8 +23558,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21761,8 +23597,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21794,8 +23636,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21827,8 +23675,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21860,8 +23714,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21893,8 +23753,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21926,8 +23792,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21959,8 +23831,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21992,8 +23870,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22025,8 +23909,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22058,8 +23948,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22091,8 +23987,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22124,8 +24026,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22157,8 +24065,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22190,8 +24104,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22223,8 +24143,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22256,8 +24182,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22289,8 +24221,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22322,8 +24260,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22355,8 +24299,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22388,8 +24338,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22421,8 +24377,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22454,8 +24416,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22487,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22520,8 +24494,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22553,8 +24533,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22586,8 +24572,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22619,8 +24611,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22652,8 +24650,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22685,8 +24689,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22718,8 +24728,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22751,8 +24767,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22784,8 +24806,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22817,8 +24845,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22850,8 +24884,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22883,8 +24923,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22916,8 +24962,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22949,8 +25001,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22982,8 +25040,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23015,8 +25079,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23048,8 +25118,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23081,8 +25157,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23114,8 +25196,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23147,8 +25235,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23180,8 +25274,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23213,8 +25313,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23246,8 +25352,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23279,8 +25391,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23312,8 +25430,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23345,8 +25469,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23378,8 +25508,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23411,8 +25547,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23444,8 +25586,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23477,8 +25625,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23510,8 +25664,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23543,8 +25703,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23576,8 +25742,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23609,8 +25781,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23642,8 +25820,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23675,8 +25859,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23708,8 +25898,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23741,8 +25937,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23774,8 +25976,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23807,8 +26015,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23840,8 +26054,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23873,8 +26093,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23906,8 +26132,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23939,8 +26171,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23972,8 +26210,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24005,8 +26249,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24038,8 +26288,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24071,8 +26327,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24104,8 +26366,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24137,8 +26405,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24170,8 +26444,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24203,8 +26483,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24236,8 +26522,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24269,8 +26561,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24302,8 +26600,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24335,8 +26639,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24368,8 +26678,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24401,8 +26717,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24434,8 +26756,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24467,8 +26795,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24500,8 +26834,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24533,8 +26873,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24566,8 +26912,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24599,8 +26951,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24632,8 +26990,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24665,8 +27029,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24698,8 +27068,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24731,8 +27107,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24764,8 +27146,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24797,8 +27185,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24830,8 +27224,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24863,8 +27263,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24896,8 +27302,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24929,8 +27341,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24962,8 +27380,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24995,8 +27419,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25028,8 +27458,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25061,8 +27497,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25094,8 +27536,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25127,8 +27575,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25160,8 +27614,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25193,8 +27653,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25226,8 +27692,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25259,8 +27731,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25292,8 +27770,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25325,8 +27809,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25358,8 +27848,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25391,8 +27887,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25424,8 +27926,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25457,8 +27965,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25490,8 +28004,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25523,8 +28043,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25556,8 +28082,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25589,8 +28121,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25622,8 +28160,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25655,8 +28199,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25688,8 +28238,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25721,8 +28277,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25754,8 +28316,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25787,8 +28355,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25820,8 +28394,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25853,8 +28433,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25886,8 +28472,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25919,8 +28511,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25952,8 +28550,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25985,8 +28589,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26018,8 +28628,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26051,8 +28667,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26084,8 +28706,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26117,8 +28745,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26150,8 +28784,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26183,8 +28823,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26216,8 +28862,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26249,8 +28901,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26282,8 +28940,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26315,8 +28979,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26348,8 +29018,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26378,11 +29054,17 @@
         <v>323.1147243961936</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26411,11 +29093,17 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26444,11 +29132,17 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26477,11 +29171,17 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26510,11 +29210,17 @@
         <v>331.2856243961936</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26543,11 +29249,17 @@
         <v>300.4028243961936</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26576,11 +29288,17 @@
         <v>303.4028243961936</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26609,11 +29327,17 @@
         <v>303.2629243961936</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26642,11 +29366,17 @@
         <v>303.2029243961936</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26675,11 +29405,17 @@
         <v>303.0969243961936</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26708,11 +29444,17 @@
         <v>302.4588243961936</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26741,11 +29483,17 @@
         <v>351.5325243961936</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26774,11 +29522,17 @@
         <v>348.6005243961936</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26807,11 +29561,17 @@
         <v>366.2784243961936</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26840,11 +29600,17 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26873,11 +29639,17 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>184300</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
